--- a/upload.xlsx
+++ b/upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRIY\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\NodeJs\readXlxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575A3DB-27C7-4AA8-9813-49330C7036DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE98EC1F-217D-40C2-8899-F067B9247427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{5051EAB4-B8E4-4103-867F-A85710A5C24F}"/>
+    <workbookView xWindow="35220" yWindow="1935" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{5051EAB4-B8E4-4103-867F-A85710A5C24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informasi Pengisian" sheetId="1" r:id="rId1"/>
@@ -675,14 +675,14 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.9296875" customWidth="1"/>
-    <col min="2" max="2" width="57.59765625" customWidth="1"/>
-    <col min="3" max="3" width="31.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -725,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -744,7 +744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -752,7 +752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -763,7 +763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -779,12 +779,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -795,7 +795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -806,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -817,7 +817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -828,22 +828,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -851,27 +851,27 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -888,21 +888,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF297BD0-7EC6-44A1-B897-2FE3CB8F816E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.46484375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -916,18 +916,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E0128B-1223-4D16-8E37-CD57F21F74A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="26.53125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>63</v>
       </c>
@@ -938,7 +938,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -962,15 +962,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="40.06640625" customWidth="1"/>
-    <col min="4" max="4" width="21.53125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -984,7 +984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1008,26 +1008,26 @@
       <selection activeCell="K2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.9296875" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.53125" customWidth="1"/>
-    <col min="10" max="10" width="34.1328125" customWidth="1"/>
-    <col min="11" max="11" width="16.46484375" customWidth="1"/>
-    <col min="12" max="12" width="21.86328125" customWidth="1"/>
-    <col min="13" max="13" width="20.9296875" customWidth="1"/>
-    <col min="14" max="14" width="22.06640625" customWidth="1"/>
-    <col min="15" max="15" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>

--- a/upload.xlsx
+++ b/upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\NodeJs\readXlxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE98EC1F-217D-40C2-8899-F067B9247427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A89B10C-34ED-44E5-B4A8-8C822FD5893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="1935" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{5051EAB4-B8E4-4103-867F-A85710A5C24F}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{5051EAB4-B8E4-4103-867F-A85710A5C24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informasi Pengisian" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Jenis Barang</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>kode sku1, kode sku2, kode sku3</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -916,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E0128B-1223-4D16-8E37-CD57F21F74A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -958,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F0E1BC-A6E1-408C-A22D-6934CC590995}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,6 +990,9 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>76</v>
